--- a/src/test/resources/TestDriver/TestAsset/ActivityData/ActivityData_2024.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/ActivityData/ActivityData_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B232D-1A43-4FB9-85F0-4200BA1A63FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE64BA22-6973-4ED3-ADB7-9513156045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
         <v>45657</v>
       </c>
       <c r="C12" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1020,7 +1020,7 @@
         <v>45657</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -1049,7 +1049,7 @@
         <v>45657</v>
       </c>
       <c r="C14" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1077,8 +1077,8 @@
       <c r="B15" s="5">
         <v>45657</v>
       </c>
-      <c r="C15" s="11">
-        <v>4</v>
+      <c r="C15" s="6">
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -1106,8 +1106,8 @@
       <c r="B16" s="5">
         <v>45657</v>
       </c>
-      <c r="C16" s="11">
-        <v>5</v>
+      <c r="C16" s="6">
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1136,7 +1136,7 @@
         <v>45657</v>
       </c>
       <c r="C17" s="11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -1165,7 +1165,7 @@
         <v>45657</v>
       </c>
       <c r="C18" s="11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -1194,7 +1194,7 @@
         <v>45657</v>
       </c>
       <c r="C19" s="11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -1223,7 +1223,7 @@
         <v>45657</v>
       </c>
       <c r="C20" s="11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1252,7 +1252,7 @@
         <v>45657</v>
       </c>
       <c r="C21" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -1280,8 +1280,8 @@
       <c r="B22" s="5">
         <v>45657</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
+      <c r="C22" s="11">
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
@@ -1309,8 +1309,8 @@
       <c r="B23" s="5">
         <v>45657</v>
       </c>
-      <c r="C23" s="6">
-        <v>2</v>
+      <c r="C23" s="11">
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
@@ -1339,7 +1339,7 @@
         <v>45657</v>
       </c>
       <c r="C24" s="6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -1367,8 +1367,8 @@
       <c r="B25" s="5">
         <v>45657</v>
       </c>
-      <c r="C25" s="11">
-        <v>4</v>
+      <c r="C25" s="6">
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -1396,8 +1396,8 @@
       <c r="B26" s="5">
         <v>45657</v>
       </c>
-      <c r="C26" s="11">
-        <v>5</v>
+      <c r="C26" s="6">
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
@@ -1425,8 +1425,8 @@
       <c r="B27" s="5">
         <v>45657</v>
       </c>
-      <c r="C27" s="11">
-        <v>6</v>
+      <c r="C27" s="6">
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
@@ -1454,8 +1454,8 @@
       <c r="B28" s="5">
         <v>45657</v>
       </c>
-      <c r="C28" s="11">
-        <v>7</v>
+      <c r="C28" s="6">
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -1484,7 +1484,7 @@
         <v>45657</v>
       </c>
       <c r="C29" s="11">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -1513,7 +1513,7 @@
         <v>45657</v>
       </c>
       <c r="C30" s="11">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
@@ -1542,7 +1542,7 @@
         <v>45657</v>
       </c>
       <c r="C31" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -1580,7 +1580,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/test/resources/TestDriver/TestAsset/ActivityData/ActivityData_2024.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/ActivityData/ActivityData_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE64BA22-6973-4ED3-ADB7-9513156045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F53D38-CA42-4BE2-BC63-128F761FA284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,9 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1828,7 +1830,7 @@
         <v>420000</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1850,7 @@
         <v>480000</v>
       </c>
       <c r="F13" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,7 +1870,7 @@
         <v>260000</v>
       </c>
       <c r="F14" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,8 +1889,8 @@
       <c r="E15" s="12">
         <v>350000</v>
       </c>
-      <c r="F15" s="11">
-        <v>4</v>
+      <c r="F15" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,8 +1909,8 @@
       <c r="E16" s="12">
         <v>300000</v>
       </c>
-      <c r="F16" s="11">
-        <v>5</v>
+      <c r="F16" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1928,7 +1930,7 @@
         <v>520000</v>
       </c>
       <c r="F17" s="11">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1948,7 +1950,7 @@
         <v>400000</v>
       </c>
       <c r="F18" s="11">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,7 +1970,7 @@
         <v>180000</v>
       </c>
       <c r="F19" s="11">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,7 +1990,7 @@
         <v>750000</v>
       </c>
       <c r="F20" s="11">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2008,7 +2010,7 @@
         <v>550000</v>
       </c>
       <c r="F21" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,8 +2029,8 @@
       <c r="E22" s="12">
         <v>120000</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
+      <c r="F22" s="11">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2047,8 +2049,8 @@
       <c r="E23" s="12">
         <v>150000</v>
       </c>
-      <c r="F23" s="6">
-        <v>2</v>
+      <c r="F23" s="11">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,7 +2070,7 @@
         <v>350000</v>
       </c>
       <c r="F24" s="6">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,8 +2089,8 @@
       <c r="E25" s="12">
         <v>220000</v>
       </c>
-      <c r="F25" s="11">
-        <v>4</v>
+      <c r="F25" s="6">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,8 +2109,8 @@
       <c r="E26" s="12">
         <v>140000</v>
       </c>
-      <c r="F26" s="11">
-        <v>5</v>
+      <c r="F26" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,8 +2129,8 @@
       <c r="E27" s="12">
         <v>180000</v>
       </c>
-      <c r="F27" s="11">
-        <v>6</v>
+      <c r="F27" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2147,8 +2149,8 @@
       <c r="E28" s="12">
         <v>420000</v>
       </c>
-      <c r="F28" s="11">
-        <v>7</v>
+      <c r="F28" s="6">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2170,7 @@
         <v>320000</v>
       </c>
       <c r="F29" s="11">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2190,7 @@
         <v>550000</v>
       </c>
       <c r="F30" s="11">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2210,7 @@
         <v>200000</v>
       </c>
       <c r="F31" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDriver/TestAsset/ActivityData/ActivityData_2024.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/ActivityData/ActivityData_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F53D38-CA42-4BE2-BC63-128F761FA284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDEF6FA-1963-4EB2-AEAB-A1E8F807B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>45657</v>
       </c>
       <c r="C2" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -1580,8 +1580,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
         <v>850000</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
